--- a/app/data/fattened_cattle.xlsx
+++ b/app/data/fattened_cattle.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4713" uniqueCount="4076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4721" uniqueCount="4081">
   <si>
     <t xml:space="preserve">Boi | INDICADOR DO BOI GORDO CEPEA/ESALQ</t>
   </si>
@@ -12249,6 +12249,21 @@
   </si>
   <si>
     <t xml:space="preserve">314,35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">313,85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/06/2025</t>
   </si>
 </sst>
 </file>
@@ -12395,7 +12410,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2357"/>
+  <dimension ref="A1:J2361"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -31283,6 +31298,38 @@
       </c>
       <c r="B2357" s="6" t="s">
         <v>4075</v>
+      </c>
+    </row>
+    <row r="2358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2358" s="6" t="s">
+        <v>4076</v>
+      </c>
+      <c r="B2358" s="6" t="s">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="2359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2359" s="6" t="s">
+        <v>4077</v>
+      </c>
+      <c r="B2359" s="6" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="2360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2360" s="6" t="s">
+        <v>4079</v>
+      </c>
+      <c r="B2360" s="6" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="2361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2361" s="6" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B2361" s="6" t="s">
+        <v>2824</v>
       </c>
     </row>
   </sheetData>
